--- a/trunk/7. Reference/Ghi nhận.xlsx
+++ b/trunk/7. Reference/Ghi nhận.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Thứ 3</t>
   </si>
@@ -60,6 +60,27 @@
   </si>
   <si>
     <t>Huy Nguyễn vắng họp vs khách hàng không lý do</t>
+  </si>
+  <si>
+    <t>Thứ 2</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>Huy Nguyễn vắng họp: bận</t>
+  </si>
+  <si>
+    <t>Châu Lê vắng họp: đi Bình Dương</t>
+  </si>
+  <si>
+    <t>Huy Ngô vắng họp: đi nhậu</t>
+  </si>
+  <si>
+    <t>10/12/2013</t>
+  </si>
+  <si>
+    <t>Huy Nguyễn vắng họp không lý do</t>
   </si>
 </sst>
 </file>
@@ -95,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C10"/>
+  <dimension ref="A3:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -438,6 +460,38 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/7. Reference/Ghi nhận.xlsx
+++ b/trunk/7. Reference/Ghi nhận.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Thứ 3</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>09/12/2013</t>
-  </si>
-  <si>
-    <t>Huy Nguyễn vắng họp: bận</t>
   </si>
   <si>
     <t>Châu Lê vắng họp: đi Bình Dương</t>
@@ -403,7 +400,7 @@
   <dimension ref="A3:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,17 +465,17 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -486,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>17</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/7. Reference/Ghi nhận.xlsx
+++ b/trunk/7. Reference/Ghi nhận.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission project\7. Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission System\7. Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Thứ 3</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Huy Nguyễn vắng họp không lý do</t>
+  </si>
+  <si>
+    <t>7/1/2014</t>
+  </si>
+  <si>
+    <t>Huy Nguyễn vắng hợp: Bệnh</t>
   </si>
 </sst>
 </file>
@@ -397,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C16"/>
+  <dimension ref="A3:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,6 +495,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/7. Reference/Ghi nhận.xlsx
+++ b/trunk/7. Reference/Ghi nhận.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\Admission System\7. Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\AS project\Admission System\7. Reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Thứ 3</t>
   </si>
@@ -83,7 +83,13 @@
     <t>7/1/2014</t>
   </si>
   <si>
-    <t>Huy Nguyễn vắng hợp: Bệnh</t>
+    <t>Huy Ngô vắng họp vs KH vì không vào kịp</t>
+  </si>
+  <si>
+    <t>Huy Nguyễn vắng họp: Bệnh</t>
+  </si>
+  <si>
+    <t>11/2/2014</t>
   </si>
 </sst>
 </file>
@@ -403,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C18"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -503,6 +509,17 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
     </row>

--- a/trunk/7. Reference/Ghi nhận.xlsx
+++ b/trunk/7. Reference/Ghi nhận.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Thứ 3</t>
   </si>
@@ -90,6 +90,30 @@
   </si>
   <si>
     <t>11/2/2014</t>
+  </si>
+  <si>
+    <t>18/2/2014</t>
+  </si>
+  <si>
+    <t>Thứ 4</t>
+  </si>
+  <si>
+    <t>Huy Ngô vắng họp: không nhớ giờ họp</t>
+  </si>
+  <si>
+    <t>20/1/2014</t>
+  </si>
+  <si>
+    <t>Huy Nguyễn vắng họp vs KH: về quê</t>
+  </si>
+  <si>
+    <t>Huy Ngô vắng họp vs KH: về quê</t>
+  </si>
+  <si>
+    <t>19/2/2014</t>
+  </si>
+  <si>
+    <t>Huy Nguyễn vắng họp vs KH: không lý do</t>
   </si>
 </sst>
 </file>
@@ -409,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C20"/>
+  <dimension ref="A3:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -512,15 +536,53 @@
         <v>20</v>
       </c>
     </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C23" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/7. Reference/Ghi nhận.xlsx
+++ b/trunk/7. Reference/Ghi nhận.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Thứ 3</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Huy Nguyễn vắng họp vs KH: không lý do</t>
+  </si>
+  <si>
+    <t>25/2/2014</t>
+  </si>
+  <si>
+    <t>26/2/2014</t>
+  </si>
+  <si>
+    <t>Huy Nguyễn vắng họp: không lý do</t>
   </si>
 </sst>
 </file>
@@ -433,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C27"/>
+  <dimension ref="A3:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,6 +594,28 @@
         <v>24</v>
       </c>
     </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/7. Reference/Ghi nhận.xlsx
+++ b/trunk/7. Reference/Ghi nhận.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Thứ 3</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>Huy Nguyễn vắng họp: không lý do</t>
+  </si>
+  <si>
+    <t>Khang Huỳnh vắng team work: khám bệnh</t>
   </si>
 </sst>
 </file>
@@ -442,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C31"/>
+  <dimension ref="A3:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -605,14 +608,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>32</v>
       </c>
     </row>

--- a/trunk/7. Reference/Ghi nhận.xlsx
+++ b/trunk/7. Reference/Ghi nhận.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Thứ 3</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Khang Huỳnh vắng team work: khám bệnh</t>
+  </si>
+  <si>
+    <t>4/3/2014</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C32"/>
+  <dimension ref="A3:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,6 +627,17 @@
         <v>32</v>
       </c>
     </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
